--- a/biology/Zoologie/Appias_paulina/Appias_paulina.xlsx
+++ b/biology/Zoologie/Appias_paulina/Appias_paulina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Appias paulina est une espèce de lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Pierinae.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été décrite par l'entomologiste Cramer, en 1777. Il existe un sous-genre le nom complet est : Appias (Catophaga) paulina 
-Synonyme
-Papilio paulina (Cramer, [1777)
-Pieris capparidis (Swainson, 1851)
-Noms vernaculaires
-Ce papillon se nomme en anglais Ceylon Lesser Albatross.
 </t>
         </is>
       </c>
@@ -544,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio paulina (Cramer, [1777)
+Pieris capparidis (Swainson, 1851)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Appias_paulina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_paulina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon se nomme en anglais Ceylon Lesser Albatross.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Appias_paulina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_paulina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste des sous-espèces :
 Appias paulina cynisca (Wallace)
@@ -563,73 +648,7 @@
 Appias paulina minato (Fruhstorfer, 1899) au Japon et à Taïwan.
 Appias paulina paula (Röber)
 Appias paulina saina (Grose-Smith, 1894) Papouasie.
-Appias paulina zoe (Vollenhoven) aux Moluques[1]. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Appias_paulina</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Appias_paulina</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle et la femelle sont d'une couleur blanche à jaune clair sur les deux faces. L'apex des antérieures est bordé largement de noir orné de points blancs sur le dessus. Dans les formes jaunes, l'aile postérieure est entièrement jaune alors qu'à l'aine antérieure seul l'apex est jauneJames Cook University
-Chenille
-La chenille est verte, elle se transforme en une chrysalide jaune pâle à pointes bordées de noir[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Appias_paulina</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Appias_paulina</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un migrateur en Inde[3].
-Plantes hôtes
-Sa plante hôte est Drypetes australasica[1], Drypetes deplanchei en Nouvelle Calédonie.
-</t>
+Appias paulina zoe (Vollenhoven) aux Moluques. .</t>
         </is>
       </c>
     </row>
@@ -654,16 +673,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appias paulina est présent au Japon, à Taïwan, dans l'extrême sud de l'Asie, au sud du Vietnam, ), à Ceylan, Java, Timor, Nicobar, aux Moluques, en Papouasie, en Nouvelle-Calédonie et en Australie[1].
-Biotope
-Appias paulina  réside jusqu'à 800 mètres d'altitude[4].
-Protection
-Pas de statut de protection particulier.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle et la femelle sont d'une couleur blanche à jaune clair sur les deux faces. L'apex des antérieures est bordé largement de noir orné de points blancs sur le dessus. Dans les formes jaunes, l'aile postérieure est entièrement jaune alors qu'à l'aine antérieure seul l'apex est jauneJames Cook University
 </t>
         </is>
       </c>
@@ -689,10 +706,226 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte, elle se transforme en une chrysalide jaune pâle à pointes bordées de noir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Appias_paulina</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_paulina</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un migrateur en Inde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Appias_paulina</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_paulina</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte est Drypetes australasica, Drypetes deplanchei en Nouvelle Calédonie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Appias_paulina</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_paulina</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appias paulina est présent au Japon, à Taïwan, dans l'extrême sud de l'Asie, au sud du Vietnam, ), à Ceylan, Java, Timor, Nicobar, aux Moluques, en Papouasie, en Nouvelle-Calédonie et en Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Appias_paulina</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_paulina</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appias paulina  réside jusqu'à 800 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Appias_paulina</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_paulina</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Appias_paulina</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_paulina</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été émis un timbre de Christmas Island en 1987.
 </t>
